--- a/Home/fii/Lista_FII.xlsx
+++ b/Home/fii/Lista_FII.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOMEE11\Documents\_Referencias\Git\AnotacoesEstudosBackPythonLSP\Home\fii\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8106AB74-E150-40E8-9D62-A4FD9619BC73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAFEFB6-AD2F-4B69-BE6F-F99B7B51BDCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12360" xr2:uid="{DE86FDCB-346A-488E-A650-090764DB250C}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12360" xr2:uid="{DE86FDCB-346A-488E-A650-090764DB250C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
